--- a/playground/Test/doc/TestControl.xlsx
+++ b/playground/Test/doc/TestControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="39" r:id="rId42"/>
-    <sheet name="setting.ini" sheetId="38" r:id="rId41"/>
-    <sheet name="template-statefunc" sheetId="37" r:id="rId40"/>
-    <sheet name="template-source" sheetId="36" r:id="rId39"/>
-    <sheet name="config" sheetId="35" r:id="rId38"/>
+    <sheet name="help" sheetId="44" r:id="rId47"/>
+    <sheet name="setting.ini" sheetId="43" r:id="rId46"/>
+    <sheet name="template-statefunc" sheetId="42" r:id="rId45"/>
+    <sheet name="template-source" sheetId="41" r:id="rId44"/>
+    <sheet name="config" sheetId="40" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -885,6 +885,82 @@
 @@@
 fillter_state_location_list=@@@
 [{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":312,"y":100}},{"Key":"S_0001","Value":{"x":173,"y":216}},{"Key":"S_0002","Value":{"x":466,"y":197}},{"Key":"S_0003","Value":{"x":438,"y":619}},{"Key":"S_0004","Value":{"x":463,"y":361}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>804,185</t>
+  </si>
+  <si>
+    <t>77,298</t>
+  </si>
+  <si>
+    <t>467,571</t>
+  </si>
+  <si>
+    <t>E_0005</t>
+  </si>
+  <si>
+    <t>Dim X As Integer</t>
+  </si>
+  <si>
+    <t>107,199</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/12 20:47:22
+; * pssgEditor version : 0.12.1252.no hash because of debug
+psggfile=@@@
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+34b6739f-b366-41a7-ad76-4eb20369898f
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":804,"y":185}},{"Key":"S_0001","Value":{"x":77,"y":298}},{"Key":"S_0002","Value":{"x":466,"y":197}},{"Key":"S_0003","Value":{"x":467,"y":571}},{"Key":"S_0004","Value":{"x":463,"y":361}},{"Key":"S_0005","Value":{"x":58,"y":553}},{"Key":"E_0005","Value":{"x":107,"y":199}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1454,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1490,6 +1566,9 @@
       <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
@@ -1516,6 +1595,9 @@
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="true">
@@ -1587,6 +1669,9 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" s="11" customFormat="true">
       <c r="A8" s="10"/>
@@ -1794,6 +1879,9 @@
       <c r="I29" s="16" t="s">
         <v>41</v>
       </c>
+      <c r="J29" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" s="16" customFormat="true">
       <c r="B30" s="16" t="s">
@@ -1803,19 +1891,22 @@
         <v>32</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>63</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" s="16" customFormat="true">
@@ -1839,6 +1930,9 @@
       </c>
       <c r="I31" s="16" t="s">
         <v>64</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1848,21 +1942,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1876,7 +1970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1890,7 +1984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1904,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
